--- a/2019/cleaning_summary/survey_cleaning_summary.xlsx
+++ b/2019/cleaning_summary/survey_cleaning_summary.xlsx
@@ -8,13 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Mode" sheetId="1" r:id="rId1"/>
+    <sheet name="Access Mode" sheetId="2" r:id="rId2"/>
+    <sheet name="Destination Purpose" sheetId="3" r:id="rId3"/>
+    <sheet name="Participation Group" sheetId="4" r:id="rId4"/>
+    <sheet name="Household Travelers" sheetId="5" r:id="rId5"/>
+    <sheet name="Parking location" sheetId="6" r:id="rId6"/>
+    <sheet name="Copied" sheetId="7" r:id="rId7"/>
+    <sheet name="Trip Lengths" sheetId="8" r:id="rId8"/>
+    <sheet name="Speed" sheetId="9" r:id="rId9"/>
+    <sheet name="Duration" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Main Mode</t>
   </si>
@@ -41,6 +50,120 @@
   </si>
   <si>
     <t>Walk</t>
+  </si>
+  <si>
+    <t>Travel mode to transit</t>
+  </si>
+  <si>
+    <t>Drove and parked a car (e.g., a vehicle in my household)</t>
+  </si>
+  <si>
+    <t>Drove and parked a carshare vehicle (e.g., ZipCar, Car2Go)</t>
+  </si>
+  <si>
+    <t>Got dropped off</t>
+  </si>
+  <si>
+    <t>Missing: Skip logic</t>
+  </si>
+  <si>
+    <t>Rode a bike</t>
+  </si>
+  <si>
+    <t>Took ride-share/other hired car service (e.g., Lyft, Uber)</t>
+  </si>
+  <si>
+    <t>Walked or jogged</t>
+  </si>
+  <si>
+    <t>dest_purpose_simple</t>
+  </si>
+  <si>
+    <t>Errands and Shopping</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Recreation/Eat Meal</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Travel Diary (Part 2) participation group</t>
+  </si>
+  <si>
+    <t>rMove</t>
+  </si>
+  <si>
+    <t>rSurvey</t>
+  </si>
+  <si>
+    <t>travelers_hh</t>
+  </si>
+  <si>
+    <t>Park location at end of trip</t>
+  </si>
+  <si>
+    <t>N/A - did not get out of vehicle / was dropped off</t>
+  </si>
+  <si>
+    <t>On the street 2+ blocks from destination</t>
+  </si>
+  <si>
+    <t>On the street by destination</t>
+  </si>
+  <si>
+    <t>Park &amp; Ride lot</t>
+  </si>
+  <si>
+    <t>Parking lot/garage (off-street) 2+ blocks from destination</t>
+  </si>
+  <si>
+    <t>Parking lot/garage (off-street) at destination</t>
+  </si>
+  <si>
+    <t>Personal driveway/garage (e.g. own or friend's/family's)</t>
+  </si>
+  <si>
+    <t>copied_trip</t>
+  </si>
+  <si>
+    <t>trip_path_distance</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>speed_mph</t>
+  </si>
+  <si>
+    <t>google_duration</t>
   </si>
 </sst>
 </file>
@@ -423,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1257</v>
+        <v>2108</v>
       </c>
       <c r="D2">
-        <v>0.02335693182451642</v>
+        <v>0.02673125451755665</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>15204</v>
+        <v>25649</v>
       </c>
       <c r="D3">
-        <v>0.2825129605886616</v>
+        <v>0.3252513980649007</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>937</v>
+        <v>532</v>
       </c>
       <c r="D4">
-        <v>0.01741085530594422</v>
+        <v>0.006746217933273311</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,10 +588,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>18206</v>
+        <v>20319</v>
       </c>
       <c r="D5">
-        <v>0.338294590928517</v>
+        <v>0.2576624101243992</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,10 +602,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>6123</v>
+        <v>8513</v>
       </c>
       <c r="D6">
-        <v>0.1137744578850549</v>
+        <v>0.1079521677931498</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,10 +616,890 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>12090</v>
+        <v>21738</v>
       </c>
       <c r="D7">
-        <v>0.2246502034673059</v>
+        <v>0.2756565515667204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>80741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>175.2684014317385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>2240.240199008254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>155951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>0.000493139200867925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.232848002169813e-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0.0002588980804556606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>79636</v>
+      </c>
+      <c r="D5">
+        <v>0.9817908350079518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>0.001208191042126416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0.0001356132802386794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4.93139200867925e-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1302</v>
+      </c>
+      <c r="D9">
+        <v>0.01605168098825096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>24530</v>
+      </c>
+      <c r="D2">
+        <v>0.3160512278712603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>20918</v>
+      </c>
+      <c r="D3">
+        <v>0.2695132321488392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>18638</v>
+      </c>
+      <c r="D4">
+        <v>0.2401370886695699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>2460</v>
+      </c>
+      <c r="D5">
+        <v>0.03169531270131677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>11068</v>
+      </c>
+      <c r="D6">
+        <v>0.1426031386090138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>67395</v>
+      </c>
+      <c r="D2">
+        <v>0.8308779110623451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>13718</v>
+      </c>
+      <c r="D3">
+        <v>0.1691220889376549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-9998</v>
+      </c>
+      <c r="C2">
+        <v>1449</v>
+      </c>
+      <c r="D2">
+        <v>0.01786396755144058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>52475</v>
+      </c>
+      <c r="D3">
+        <v>0.6469369891386091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>18317</v>
+      </c>
+      <c r="D4">
+        <v>0.2258207685574445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5605</v>
+      </c>
+      <c r="D5">
+        <v>0.069101130521618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2168</v>
+      </c>
+      <c r="D6">
+        <v>0.02672814468704153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>655</v>
+      </c>
+      <c r="D7">
+        <v>0.008075154414212271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>252</v>
+      </c>
+      <c r="D8">
+        <v>0.003106776965467927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>0.001430103682516982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>0.0009369644816490575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>36095</v>
+      </c>
+      <c r="D2">
+        <v>0.4449964863831938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>3387</v>
+      </c>
+      <c r="D3">
+        <v>0.04175656183349155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>1526</v>
+      </c>
+      <c r="D4">
+        <v>0.01881326051311134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>6395</v>
+      </c>
+      <c r="D5">
+        <v>0.07884062973875951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>408</v>
+      </c>
+      <c r="D6">
+        <v>0.005030019848852835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>192</v>
+      </c>
+      <c r="D7">
+        <v>0.00236706816416604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>469</v>
+      </c>
+      <c r="D8">
+        <v>0.00578205713017642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>21779</v>
+      </c>
+      <c r="D9">
+        <v>0.2685019663925635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>10862</v>
+      </c>
+      <c r="D10">
+        <v>0.133911949995685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>75031</v>
+      </c>
+      <c r="D2">
+        <v>0.925018184508032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6082</v>
+      </c>
+      <c r="D3">
+        <v>0.074981815491968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>80742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>10.33509385787317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>124.4422459193921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.001864113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>0.5070515520000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>1.670117624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>5.0991126065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>15758.66863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>81111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>399.9248417353933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>46503.52948558087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>19.158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>9732219.949999999</v>
       </c>
     </row>
   </sheetData>
